--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
+    <sheet name="India Adjustment" sheetId="4" r:id="rId3"/>
+    <sheet name="BRAaCTSC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Source:</t>
   </si>
@@ -104,6 +105,24 @@
   </si>
   <si>
     <t>Cost ($/vehicle)</t>
+  </si>
+  <si>
+    <t>For India, we apply an adjustment factor based on the ratio of LDV prices in India and the US.</t>
+  </si>
+  <si>
+    <t>India passenger LDV price, gasoline</t>
+  </si>
+  <si>
+    <t>US passenger LDV price, gasoline</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>*see variable trans/BNVP, India EPS 3.1</t>
+  </si>
+  <si>
+    <t>*see variable trans/BNVP, US EPS 3.1</t>
   </si>
 </sst>
 </file>
@@ -509,20 +528,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,72 +549,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>1.0529130131709286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -612,13 +636,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -629,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -640,7 +664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -651,7 +675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -663,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -675,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -695,20 +719,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="33.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>36108.776943503013</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <f>B1/B2</f>
+        <v>0.21261235471183726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -812,141 +887,141 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
-        <f>Data!B6</f>
-        <v>3729.0669216470392</v>
+        <f>Data!B6*'India Adjustment'!B3</f>
+        <v>792.84569908939932</v>
       </c>
       <c r="C2" s="5">
         <f>$B2</f>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:AH2" si="0">$B2</f>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="P2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="Q2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="S2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="T2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="U2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="V2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="W2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="X2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="Y2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="Z2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AB2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AC2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AD2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AF2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
       <c r="AH2" s="5">
         <f t="shared" si="0"/>
-        <v>3729.0669216470392</v>
+        <v>792.84569908939932</v>
       </c>
     </row>
   </sheetData>
